--- a/汽柴煤油2.0/eta/柴油出口利润-华东-新加坡_月度数据.xlsx
+++ b/汽柴煤油2.0/eta/柴油出口利润-华东-新加坡_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>381.6</v>
+        <v>239.2</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>201.5</v>
+        <v>228.2</v>
       </c>
       <c r="C3" t="n">
-        <v>256.8</v>
+        <v>205.4</v>
       </c>
     </row>
     <row r="4">
@@ -484,7 +484,7 @@
         <v>142.4</v>
       </c>
       <c r="C4" t="n">
-        <v>102.6</v>
+        <v>103.8</v>
       </c>
     </row>
     <row r="5">
@@ -497,7 +497,7 @@
         <v>-83.59999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>-27.9</v>
+        <v>-27.3</v>
       </c>
     </row>
     <row r="6">
@@ -510,7 +510,7 @@
         <v>47.3</v>
       </c>
       <c r="C6" t="n">
-        <v>-22.4</v>
+        <v>-19.7</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         <v>-293.2</v>
       </c>
       <c r="C7" t="n">
-        <v>-148</v>
+        <v>-147.1</v>
       </c>
     </row>
     <row r="8">
@@ -536,7 +536,7 @@
         <v>-306</v>
       </c>
       <c r="C8" t="n">
-        <v>-163.1</v>
+        <v>-162.6</v>
       </c>
     </row>
     <row r="9">
@@ -549,7 +549,7 @@
         <v>-236.7</v>
       </c>
       <c r="C9" t="n">
-        <v>-127.6</v>
+        <v>-130</v>
       </c>
     </row>
     <row r="10">
@@ -562,7 +562,7 @@
         <v>-182.8</v>
       </c>
       <c r="C10" t="n">
-        <v>-82.2</v>
+        <v>-82.3</v>
       </c>
     </row>
     <row r="11">
@@ -575,7 +575,7 @@
         <v>-22.5</v>
       </c>
       <c r="C11" t="n">
-        <v>45.7</v>
+        <v>45.6</v>
       </c>
     </row>
     <row r="12">
@@ -588,7 +588,7 @@
         <v>109.7</v>
       </c>
       <c r="C12" t="n">
-        <v>129.6</v>
+        <v>129.4</v>
       </c>
     </row>
     <row r="13">
@@ -601,7 +601,7 @@
         <v>-87.3</v>
       </c>
       <c r="C13" t="n">
-        <v>65.59999999999999</v>
+        <v>65.5</v>
       </c>
     </row>
     <row r="14">
@@ -614,7 +614,7 @@
         <v>223.7</v>
       </c>
       <c r="C14" t="n">
-        <v>219</v>
+        <v>219.8</v>
       </c>
     </row>
     <row r="15">
@@ -627,7 +627,7 @@
         <v>249.3</v>
       </c>
       <c r="C15" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16">
@@ -640,7 +640,7 @@
         <v>-14.2</v>
       </c>
       <c r="C16" t="n">
-        <v>90.59999999999999</v>
+        <v>91.09999999999999</v>
       </c>
     </row>
     <row r="17">
@@ -653,7 +653,7 @@
         <v>101.9</v>
       </c>
       <c r="C17" t="n">
-        <v>54.8</v>
+        <v>57.2</v>
       </c>
     </row>
     <row r="18">
@@ -666,7 +666,7 @@
         <v>335</v>
       </c>
       <c r="C18" t="n">
-        <v>171</v>
+        <v>171.1</v>
       </c>
     </row>
     <row r="19">
@@ -679,7 +679,7 @@
         <v>185.4</v>
       </c>
       <c r="C19" t="n">
-        <v>102.2</v>
+        <v>101.9</v>
       </c>
     </row>
     <row r="20">
@@ -705,7 +705,7 @@
         <v>331.8</v>
       </c>
       <c r="C21" t="n">
-        <v>264.7</v>
+        <v>264.8</v>
       </c>
     </row>
     <row r="22">
@@ -718,7 +718,7 @@
         <v>358.8</v>
       </c>
       <c r="C22" t="n">
-        <v>398.7</v>
+        <v>398.4</v>
       </c>
     </row>
     <row r="23">
@@ -731,7 +731,7 @@
         <v>552.5</v>
       </c>
       <c r="C23" t="n">
-        <v>523.6</v>
+        <v>522.7</v>
       </c>
     </row>
     <row r="24">
@@ -744,7 +744,7 @@
         <v>356.2</v>
       </c>
       <c r="C24" t="n">
-        <v>274.9</v>
+        <v>275.3</v>
       </c>
     </row>
     <row r="25">
